--- a/Code/Results/Cases/Case_3_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.65682673594535</v>
+        <v>16.44711831065678</v>
       </c>
       <c r="C2">
-        <v>9.639784907539346</v>
+        <v>8.651268738831185</v>
       </c>
       <c r="D2">
-        <v>5.750896200104518</v>
+        <v>7.254635730637227</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.46451174000503</v>
+        <v>47.84801966962823</v>
       </c>
       <c r="G2">
-        <v>2.125273836884176</v>
+        <v>3.733221758670223</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.299600875880214</v>
+        <v>11.57496939932736</v>
       </c>
       <c r="K2">
-        <v>14.58692783694227</v>
+        <v>15.96434949061308</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.0290265131254</v>
+        <v>23.04671829507067</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.67631805210198</v>
+        <v>16.24902804071727</v>
       </c>
       <c r="C3">
-        <v>9.005527156297365</v>
+        <v>8.509496279951062</v>
       </c>
       <c r="D3">
-        <v>5.389531231417443</v>
+        <v>7.22124987853009</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.28604113549908</v>
+        <v>47.7110484607768</v>
       </c>
       <c r="G3">
-        <v>2.134564875684979</v>
+        <v>3.736493423664342</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.037236761612794</v>
+        <v>11.56359162661096</v>
       </c>
       <c r="K3">
-        <v>13.79720292992849</v>
+        <v>15.8366100363417</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.1513879969994</v>
+        <v>23.08566712772199</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.05578812115027</v>
+        <v>16.1310178350153</v>
       </c>
       <c r="C4">
-        <v>8.609228792845093</v>
+        <v>8.424069023183931</v>
       </c>
       <c r="D4">
-        <v>5.177874706184992</v>
+        <v>7.202605359040039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.57801579828776</v>
+        <v>47.63712113760913</v>
       </c>
       <c r="G4">
-        <v>2.140408001445702</v>
+        <v>3.738606189661548</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.878608526489213</v>
+        <v>11.55901292489441</v>
       </c>
       <c r="K4">
-        <v>13.30088655084381</v>
+        <v>15.76201489755569</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.23171966919801</v>
+        <v>23.11146454301359</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.79847715137754</v>
+        <v>16.08389489598204</v>
       </c>
       <c r="C5">
-        <v>8.444281561569209</v>
+        <v>8.389713224718376</v>
       </c>
       <c r="D5">
-        <v>5.089997654874375</v>
+        <v>7.195480533003608</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.29356658547869</v>
+        <v>47.609567204489</v>
       </c>
       <c r="G5">
-        <v>2.142825853139618</v>
+        <v>3.739493394451422</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.814639667777562</v>
+        <v>11.55775332308992</v>
       </c>
       <c r="K5">
-        <v>13.09596999693484</v>
+        <v>15.73261093989191</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.26571768225058</v>
+        <v>23.12245036278911</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.7554900333848</v>
+        <v>16.07613021861112</v>
       </c>
       <c r="C6">
-        <v>8.416686442955573</v>
+        <v>8.384037452081456</v>
       </c>
       <c r="D6">
-        <v>5.075310285871609</v>
+        <v>7.194326207660498</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.24658525467754</v>
+        <v>47.60514759139367</v>
       </c>
       <c r="G6">
-        <v>2.143229607966999</v>
+        <v>3.739642301518803</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.804060016060066</v>
+        <v>11.55758080264753</v>
       </c>
       <c r="K6">
-        <v>13.06178993825979</v>
+        <v>15.72778929596073</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.27143801148718</v>
+        <v>23.12430312055606</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.05233559044649</v>
+        <v>16.13037832829432</v>
       </c>
       <c r="C7">
-        <v>8.607018116069373</v>
+        <v>8.423603776658711</v>
       </c>
       <c r="D7">
-        <v>5.176696026932684</v>
+        <v>7.202507347859602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.57416288411412</v>
+        <v>47.63673910542646</v>
       </c>
       <c r="G7">
-        <v>2.140440458260357</v>
+        <v>3.738618048463002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.877743019070234</v>
+        <v>11.55899348183831</v>
       </c>
       <c r="K7">
-        <v>13.29813344784612</v>
+        <v>15.76161428304067</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.23217312468681</v>
+        <v>23.11161078619437</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.32269358038422</v>
+        <v>16.3781009170129</v>
       </c>
       <c r="C8">
-        <v>9.41640128757461</v>
+        <v>8.602078455551791</v>
       </c>
       <c r="D8">
-        <v>5.616628170724624</v>
+        <v>7.242743561556784</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.05503909674019</v>
+        <v>47.79868956441871</v>
       </c>
       <c r="G8">
-        <v>2.128449870336944</v>
+        <v>3.734328311928561</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.208656860548443</v>
+        <v>11.57054737712771</v>
       </c>
       <c r="K8">
-        <v>14.31711145240674</v>
+        <v>15.91952658679152</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.07010828062464</v>
+        <v>23.05975695160178</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.66085063576551</v>
+        <v>16.88997913640606</v>
       </c>
       <c r="C9">
-        <v>11.01684772339566</v>
+        <v>8.96277089154122</v>
       </c>
       <c r="D9">
-        <v>6.536737069428766</v>
+        <v>7.336039315361141</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.07645305306701</v>
+        <v>48.19627430273592</v>
       </c>
       <c r="G9">
-        <v>2.105939404109568</v>
+        <v>3.726736556981216</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.875112741853865</v>
+        <v>11.61224913495867</v>
       </c>
       <c r="K9">
-        <v>16.25176952300887</v>
+        <v>16.25826753044123</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.79588596204017</v>
+        <v>22.97302143090049</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.42467278539046</v>
+        <v>17.27837636401071</v>
       </c>
       <c r="C10">
-        <v>12.10793454254629</v>
+        <v>9.23140849071569</v>
       </c>
       <c r="D10">
-        <v>7.152893803379473</v>
+        <v>7.412884260596453</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.36236221446426</v>
+        <v>48.53601987356416</v>
       </c>
       <c r="G10">
-        <v>2.089866691108742</v>
+        <v>3.721652882042298</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.37341903129548</v>
+        <v>11.65439923789185</v>
       </c>
       <c r="K10">
-        <v>17.84783554992143</v>
+        <v>16.52291626750192</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.62465514789177</v>
+        <v>22.91842685972998</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.21414638932417</v>
+        <v>17.45696965740889</v>
       </c>
       <c r="C11">
-        <v>12.58557556541138</v>
+        <v>9.353809834920272</v>
       </c>
       <c r="D11">
-        <v>7.420852201040094</v>
+        <v>7.449532734792828</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.41639039274022</v>
+        <v>48.70062933047283</v>
       </c>
       <c r="G11">
-        <v>2.082619365802628</v>
+        <v>3.719446137705424</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.601793052365892</v>
+        <v>11.67604473322306</v>
       </c>
       <c r="K11">
-        <v>18.5446794602977</v>
+        <v>16.6462961047479</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.55428780035528</v>
+        <v>22.89557667143087</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.50868968049006</v>
+        <v>17.52480837598991</v>
       </c>
       <c r="C12">
-        <v>12.76388341626584</v>
+        <v>9.40014015776301</v>
       </c>
       <c r="D12">
-        <v>7.520606296929261</v>
+        <v>7.463643535214404</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.81761205240836</v>
+        <v>48.76437995780131</v>
       </c>
       <c r="G12">
-        <v>2.079880799598769</v>
+        <v>3.718625620789275</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.688516516707161</v>
+        <v>11.68459346961234</v>
       </c>
       <c r="K12">
-        <v>18.80452822572335</v>
+        <v>16.69340839699266</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.52881815129033</v>
+        <v>22.88720973429297</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.44544794243746</v>
+        <v>17.5101898147941</v>
       </c>
       <c r="C13">
-        <v>12.72559352743996</v>
+        <v>9.390163758198387</v>
       </c>
       <c r="D13">
-        <v>7.499197805608815</v>
+        <v>7.460594337114777</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.73110759860308</v>
+        <v>48.75058761282227</v>
       </c>
       <c r="G13">
-        <v>2.080470397468868</v>
+        <v>3.718801662355035</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.66982808690619</v>
+        <v>11.68273674528983</v>
       </c>
       <c r="K13">
-        <v>18.74874150947966</v>
+        <v>16.6832451560746</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.53424950717106</v>
+        <v>22.88899897930941</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.23846607317239</v>
+        <v>17.46254696544358</v>
       </c>
       <c r="C14">
-        <v>12.60029568372881</v>
+        <v>9.357622140223569</v>
       </c>
       <c r="D14">
-        <v>7.429093070104324</v>
+        <v>7.450689033820831</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.44935685265693</v>
+        <v>48.70584592035276</v>
       </c>
       <c r="G14">
-        <v>2.082393966155379</v>
+        <v>3.719378330591425</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.608922915653807</v>
+        <v>11.67674100750205</v>
       </c>
       <c r="K14">
-        <v>18.56613711852394</v>
+        <v>16.65016444942155</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.55216822180446</v>
+        <v>22.89488258521424</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.11111420562193</v>
+        <v>17.43338968073731</v>
       </c>
       <c r="C15">
-        <v>12.52321714258668</v>
+        <v>9.33768538600596</v>
       </c>
       <c r="D15">
-        <v>7.38593023704969</v>
+        <v>7.444651753768472</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>45.27705038509484</v>
+        <v>48.67862390477084</v>
       </c>
       <c r="G15">
-        <v>2.083572860391492</v>
+        <v>3.719733524118927</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.571648669394326</v>
+        <v>11.67311418835972</v>
       </c>
       <c r="K15">
-        <v>18.45376708221678</v>
+        <v>16.62995132039156</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.5633002497333</v>
+        <v>22.8985237148286</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.37245187715502</v>
+        <v>17.26673769889068</v>
       </c>
       <c r="C16">
-        <v>12.07635357844479</v>
+        <v>9.223409031976088</v>
       </c>
       <c r="D16">
-        <v>7.135138705965391</v>
+        <v>7.410522351922208</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.29376647817885</v>
+        <v>48.52546215945457</v>
       </c>
       <c r="G16">
-        <v>2.090341331583192</v>
+        <v>3.721799220046525</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.358527940410024</v>
+        <v>11.65303410810859</v>
       </c>
       <c r="K16">
-        <v>17.80172141421051</v>
+        <v>16.51490995526213</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.62941307771855</v>
+        <v>22.91996015959183</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.91126499684957</v>
+        <v>17.16494449876148</v>
       </c>
       <c r="C17">
-        <v>11.79751147955837</v>
+        <v>9.15331939993329</v>
       </c>
       <c r="D17">
-        <v>6.978166510916433</v>
+        <v>7.3900110034155</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>43.69419318627867</v>
+        <v>48.43405800556793</v>
       </c>
       <c r="G17">
-        <v>2.094507721229751</v>
+        <v>3.723093502047758</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.228213779079466</v>
+        <v>11.64134634632315</v>
       </c>
       <c r="K17">
-        <v>17.39434530236754</v>
+        <v>16.44507408025606</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.67196232992512</v>
+        <v>22.93361950068524</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.64299671875652</v>
+        <v>17.1065793399078</v>
       </c>
       <c r="C18">
-        <v>11.63536038800406</v>
+        <v>9.113027032166606</v>
       </c>
       <c r="D18">
-        <v>6.886715529486373</v>
+        <v>7.378373264918983</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.35066025990862</v>
+        <v>48.38243334150432</v>
       </c>
       <c r="G18">
-        <v>2.096910388887756</v>
+        <v>3.723847906864745</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.153418892374768</v>
+        <v>11.63485667980404</v>
       </c>
       <c r="K18">
-        <v>17.15727229926958</v>
+        <v>16.40519012069856</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.6971375871388</v>
+        <v>22.94166281583715</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.55164492655924</v>
+        <v>17.08685143367579</v>
       </c>
       <c r="C19">
-        <v>11.58015153444182</v>
+        <v>9.099389904672258</v>
       </c>
       <c r="D19">
-        <v>6.855550082706189</v>
+        <v>7.374460689926565</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.23457321993006</v>
+        <v>48.36511790295517</v>
       </c>
       <c r="G19">
-        <v>2.097725065247458</v>
+        <v>3.724105050175656</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.128122080604433</v>
+        <v>11.63269947192851</v>
       </c>
       <c r="K19">
-        <v>17.07652435598312</v>
+        <v>16.39173601367181</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.70577939172941</v>
+        <v>22.94441821708421</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.96066912342143</v>
+        <v>17.1757620323817</v>
       </c>
       <c r="C20">
-        <v>11.827376877004</v>
+        <v>9.160778711125205</v>
       </c>
       <c r="D20">
-        <v>6.994996612631364</v>
+        <v>7.392178001881383</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>43.75788143638037</v>
+        <v>48.44369016629184</v>
       </c>
       <c r="G20">
-        <v>2.094063576364252</v>
+        <v>3.722954692529603</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.242069602641273</v>
+        <v>11.64256645464365</v>
       </c>
       <c r="K20">
-        <v>17.43799576797825</v>
+        <v>16.45247913737948</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.66735958363579</v>
+        <v>22.93214610175796</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.29938002298936</v>
+        <v>17.4765356603454</v>
       </c>
       <c r="C21">
-        <v>12.63716722280214</v>
+        <v>9.367181335583677</v>
       </c>
       <c r="D21">
-        <v>7.44973061275402</v>
+        <v>7.453592227777382</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.53205659164742</v>
+        <v>48.71894944177908</v>
       </c>
       <c r="G21">
-        <v>2.081828837970122</v>
+        <v>3.719208539271574</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.626805564795061</v>
+        <v>11.67849257460642</v>
       </c>
       <c r="K21">
-        <v>18.61988040289792</v>
+        <v>16.65987075527073</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.54687230149275</v>
+        <v>22.89314666357847</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.14867502862597</v>
+        <v>17.67429907032666</v>
       </c>
       <c r="C22">
-        <v>13.15153425640083</v>
+        <v>9.501937121459253</v>
       </c>
       <c r="D22">
-        <v>7.736954705664385</v>
+        <v>7.495081915124607</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.70380312712007</v>
+        <v>48.90708894217534</v>
       </c>
       <c r="G22">
-        <v>2.073864891226492</v>
+        <v>3.716848354572828</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.879681570140212</v>
+        <v>11.70402261392076</v>
       </c>
       <c r="K22">
-        <v>19.36890808037554</v>
+        <v>16.79767398649097</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.47504042475269</v>
+        <v>22.86932514128454</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.69767524382463</v>
+        <v>17.56866141172149</v>
       </c>
       <c r="C23">
-        <v>12.87832274955069</v>
+        <v>9.430043880297916</v>
       </c>
       <c r="D23">
-        <v>7.584549583514483</v>
+        <v>7.472817924391667</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.07726762220356</v>
+        <v>48.80593162994919</v>
       </c>
       <c r="G23">
-        <v>2.078113684339354</v>
+        <v>3.718099994456359</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.744582067595166</v>
+        <v>11.69021034839574</v>
       </c>
       <c r="K23">
-        <v>18.97121799209458</v>
+        <v>16.72393192444851</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.51271117521383</v>
+        <v>22.88188645909106</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.9383432658681</v>
+        <v>17.17087093107272</v>
       </c>
       <c r="C24">
-        <v>11.81388047450354</v>
+        <v>9.15740634317115</v>
       </c>
       <c r="D24">
-        <v>6.98739148303696</v>
+        <v>7.391197819825342</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>43.72908433774253</v>
+        <v>48.43933258347678</v>
       </c>
       <c r="G24">
-        <v>2.094264351097711</v>
+        <v>3.72301741620643</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.235804996919263</v>
+        <v>11.64201412769294</v>
       </c>
       <c r="K24">
-        <v>17.4182703353156</v>
+        <v>16.44913048073389</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.66943827100897</v>
+        <v>22.93281163239564</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.04535754131266</v>
+        <v>16.74907626461129</v>
       </c>
       <c r="C25">
-        <v>10.59771969591154</v>
+        <v>8.864348412029678</v>
       </c>
       <c r="D25">
-        <v>6.298538425350944</v>
+        <v>7.309306071381232</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.24722104385956</v>
+        <v>48.08025874950734</v>
       </c>
       <c r="G25">
-        <v>2.111935903181335</v>
+        <v>3.728703135606488</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.693188191516994</v>
+        <v>11.59893734558593</v>
       </c>
       <c r="K25">
-        <v>15.7149312468016</v>
+        <v>16.16371219076167</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.86505401233562</v>
+        <v>22.99488358583801</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_227/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_227/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.44711831065678</v>
+        <v>16.65682673594537</v>
       </c>
       <c r="C2">
-        <v>8.651268738831185</v>
+        <v>9.639784907539434</v>
       </c>
       <c r="D2">
-        <v>7.254635730637227</v>
+        <v>5.750896200104524</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>47.84801966962823</v>
+        <v>39.46451174000493</v>
       </c>
       <c r="G2">
-        <v>3.733221758670223</v>
+        <v>2.125273836884308</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.57496939932736</v>
+        <v>8.299600875880223</v>
       </c>
       <c r="K2">
-        <v>15.96434949061308</v>
+        <v>14.58692783694225</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.04671829507067</v>
+        <v>16.02902651312532</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.24902804071727</v>
+        <v>15.67631805210196</v>
       </c>
       <c r="C3">
-        <v>8.509496279951062</v>
+        <v>9.005527156297402</v>
       </c>
       <c r="D3">
-        <v>7.22124987853009</v>
+        <v>5.389531231417449</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.7110484607768</v>
+        <v>38.28604113549896</v>
       </c>
       <c r="G3">
-        <v>3.736493423664342</v>
+        <v>2.134564875685377</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.56359162661096</v>
+        <v>8.037236761612842</v>
       </c>
       <c r="K3">
-        <v>15.8366100363417</v>
+        <v>13.79720292992848</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.08566712772199</v>
+        <v>16.15138799699934</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.1310178350153</v>
+        <v>15.05578812115025</v>
       </c>
       <c r="C4">
-        <v>8.424069023183931</v>
+        <v>8.609228792845094</v>
       </c>
       <c r="D4">
-        <v>7.202605359040039</v>
+        <v>5.177874706184897</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>47.63712113760913</v>
+        <v>37.57801579828781</v>
       </c>
       <c r="G4">
-        <v>3.738606189661548</v>
+        <v>2.140408001445576</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.55901292489441</v>
+        <v>7.878608526489233</v>
       </c>
       <c r="K4">
-        <v>15.76201489755569</v>
+        <v>13.30088655084384</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.11146454301359</v>
+        <v>16.23171966919806</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.08389489598204</v>
+        <v>14.79847715137754</v>
       </c>
       <c r="C5">
-        <v>8.389713224718376</v>
+        <v>8.444281561569188</v>
       </c>
       <c r="D5">
-        <v>7.195480533003608</v>
+        <v>5.089997654874407</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>47.609567204489</v>
+        <v>37.29356658547852</v>
       </c>
       <c r="G5">
-        <v>3.739493394451422</v>
+        <v>2.142825853139886</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.55775332308992</v>
+        <v>7.814639667777564</v>
       </c>
       <c r="K5">
-        <v>15.73261093989191</v>
+        <v>13.09596999693478</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.12245036278911</v>
+        <v>16.26571768225045</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.07613021861112</v>
+        <v>14.75549003338474</v>
       </c>
       <c r="C6">
-        <v>8.384037452081456</v>
+        <v>8.416686442955577</v>
       </c>
       <c r="D6">
-        <v>7.194326207660498</v>
+        <v>5.075310285871557</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>47.60514759139367</v>
+        <v>37.24658525467705</v>
       </c>
       <c r="G6">
-        <v>3.739642301518803</v>
+        <v>2.14322960796673</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.55758080264753</v>
+        <v>7.804060016060051</v>
       </c>
       <c r="K6">
-        <v>15.72778929596073</v>
+        <v>13.06178993825973</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.12430312055606</v>
+        <v>16.27143801148698</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.13037832829432</v>
+        <v>15.05233559044644</v>
       </c>
       <c r="C7">
-        <v>8.423603776658711</v>
+        <v>8.607018116069396</v>
       </c>
       <c r="D7">
-        <v>7.202507347859602</v>
+        <v>5.176696026932747</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>47.63673910542646</v>
+        <v>37.57416288411407</v>
       </c>
       <c r="G7">
-        <v>3.738618048463002</v>
+        <v>2.140440458260089</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.55899348183831</v>
+        <v>7.877743019070212</v>
       </c>
       <c r="K7">
-        <v>15.76161428304067</v>
+        <v>13.29813344784609</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.11161078619437</v>
+        <v>16.23217312468674</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.3781009170129</v>
+        <v>16.32269358038422</v>
       </c>
       <c r="C8">
-        <v>8.602078455551791</v>
+        <v>9.416401287574573</v>
       </c>
       <c r="D8">
-        <v>7.242743561556784</v>
+        <v>5.616628170724645</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47.79868956441871</v>
+        <v>39.05503909674015</v>
       </c>
       <c r="G8">
-        <v>3.734328311928561</v>
+        <v>2.128449870337077</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.57054737712771</v>
+        <v>8.208656860548404</v>
       </c>
       <c r="K8">
-        <v>15.91952658679152</v>
+        <v>14.31711145240674</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.05975695160178</v>
+        <v>16.07010828062464</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.88997913640606</v>
+        <v>18.6608506357655</v>
       </c>
       <c r="C9">
-        <v>8.96277089154122</v>
+        <v>11.01684772339561</v>
       </c>
       <c r="D9">
-        <v>7.336039315361141</v>
+        <v>6.536737069428726</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>48.19627430273592</v>
+        <v>42.07645305306701</v>
       </c>
       <c r="G9">
-        <v>3.726736556981216</v>
+        <v>2.105939404109568</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.61224913495867</v>
+        <v>8.875112741853863</v>
       </c>
       <c r="K9">
-        <v>16.25826753044123</v>
+        <v>16.25176952300889</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.97302143090049</v>
+        <v>15.7958859620402</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.27837636401071</v>
+        <v>20.42467278539047</v>
       </c>
       <c r="C10">
-        <v>9.23140849071569</v>
+        <v>12.10793454254628</v>
       </c>
       <c r="D10">
-        <v>7.412884260596453</v>
+        <v>7.152893803379479</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>48.53601987356416</v>
+        <v>44.36236221446427</v>
       </c>
       <c r="G10">
-        <v>3.721652882042298</v>
+        <v>2.089866691108744</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.65439923789185</v>
+        <v>9.373419031295471</v>
       </c>
       <c r="K10">
-        <v>16.52291626750192</v>
+        <v>17.84783554992143</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.91842685972998</v>
+        <v>15.62465514789177</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.45696965740889</v>
+        <v>21.21414638932424</v>
       </c>
       <c r="C11">
-        <v>9.353809834920272</v>
+        <v>12.58557556541144</v>
       </c>
       <c r="D11">
-        <v>7.449532734792828</v>
+        <v>7.420852201040161</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.70062933047283</v>
+        <v>45.41639039274013</v>
       </c>
       <c r="G11">
-        <v>3.719446137705424</v>
+        <v>2.082619365802631</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.67604473322306</v>
+        <v>9.601793052365865</v>
       </c>
       <c r="K11">
-        <v>16.6462961047479</v>
+        <v>18.54467946029775</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.89557667143087</v>
+        <v>15.55428780035522</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.52480837598991</v>
+        <v>21.50868968048996</v>
       </c>
       <c r="C12">
-        <v>9.40014015776301</v>
+        <v>12.76388341626586</v>
       </c>
       <c r="D12">
-        <v>7.463643535214404</v>
+        <v>7.520606296929297</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.76437995780131</v>
+        <v>45.81761205240839</v>
       </c>
       <c r="G12">
-        <v>3.718625620789275</v>
+        <v>2.079880799598504</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.68459346961234</v>
+        <v>9.688516516707146</v>
       </c>
       <c r="K12">
-        <v>16.69340839699266</v>
+        <v>18.8045282257233</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.88720973429297</v>
+        <v>15.52881815129038</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.5101898147941</v>
+        <v>21.44544794243742</v>
       </c>
       <c r="C13">
-        <v>9.390163758198387</v>
+        <v>12.72559352744004</v>
       </c>
       <c r="D13">
-        <v>7.460594337114777</v>
+        <v>7.499197805608847</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.75058761282227</v>
+        <v>45.73110759860314</v>
       </c>
       <c r="G13">
-        <v>3.718801662355035</v>
+        <v>2.080470397468868</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.68273674528983</v>
+        <v>9.669828086906195</v>
       </c>
       <c r="K13">
-        <v>16.6832451560746</v>
+        <v>18.74874150947965</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.88899897930941</v>
+        <v>15.53424950717108</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.46254696544358</v>
+        <v>21.23846607317241</v>
       </c>
       <c r="C14">
-        <v>9.357622140223569</v>
+        <v>12.60029568372884</v>
       </c>
       <c r="D14">
-        <v>7.450689033820831</v>
+        <v>7.429093070104321</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.70584592035276</v>
+        <v>45.44935685265695</v>
       </c>
       <c r="G14">
-        <v>3.719378330591425</v>
+        <v>2.082393966155239</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.67674100750205</v>
+        <v>9.608922915653812</v>
       </c>
       <c r="K14">
-        <v>16.65016444942155</v>
+        <v>18.56613711852398</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.89488258521424</v>
+        <v>15.55216822180448</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.43338968073731</v>
+        <v>21.11111420562188</v>
       </c>
       <c r="C15">
-        <v>9.33768538600596</v>
+        <v>12.52321714258656</v>
       </c>
       <c r="D15">
-        <v>7.444651753768472</v>
+        <v>7.385930237049815</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.67862390477084</v>
+        <v>45.27705038509479</v>
       </c>
       <c r="G15">
-        <v>3.719733524118927</v>
+        <v>2.083572860391356</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.67311418835972</v>
+        <v>9.57164866939431</v>
       </c>
       <c r="K15">
-        <v>16.62995132039156</v>
+        <v>18.45376708221669</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.8985237148286</v>
+        <v>15.56330024973338</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.26673769889068</v>
+        <v>20.37245187715502</v>
       </c>
       <c r="C16">
-        <v>9.223409031976088</v>
+        <v>12.07635357844491</v>
       </c>
       <c r="D16">
-        <v>7.410522351922208</v>
+        <v>7.135138705965326</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>48.52546215945457</v>
+        <v>44.2937664781788</v>
       </c>
       <c r="G16">
-        <v>3.721799220046525</v>
+        <v>2.090341331583323</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.65303410810859</v>
+        <v>9.358527940410013</v>
       </c>
       <c r="K16">
-        <v>16.51490995526213</v>
+        <v>17.80172141421056</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.91996015959183</v>
+        <v>15.62941307771854</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.16494449876148</v>
+        <v>19.91126499684952</v>
       </c>
       <c r="C17">
-        <v>9.15331939993329</v>
+        <v>11.79751147955824</v>
       </c>
       <c r="D17">
-        <v>7.3900110034155</v>
+        <v>6.978166510916503</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>48.43405800556793</v>
+        <v>43.69419318627862</v>
       </c>
       <c r="G17">
-        <v>3.723093502047758</v>
+        <v>2.094507721229086</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.64134634632315</v>
+        <v>9.228213779079445</v>
       </c>
       <c r="K17">
-        <v>16.44507408025606</v>
+        <v>17.39434530236746</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.93361950068524</v>
+        <v>15.67196232992507</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.1065793399078</v>
+        <v>19.64299671875656</v>
       </c>
       <c r="C18">
-        <v>9.113027032166606</v>
+        <v>11.63536038800406</v>
       </c>
       <c r="D18">
-        <v>7.378373264918983</v>
+        <v>6.886715529486377</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.38243334150432</v>
+        <v>43.3506602599087</v>
       </c>
       <c r="G18">
-        <v>3.723847906864745</v>
+        <v>2.096910388887891</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.63485667980404</v>
+        <v>9.15341889237475</v>
       </c>
       <c r="K18">
-        <v>16.40519012069856</v>
+        <v>17.1572722992696</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.94166281583715</v>
+        <v>15.69713758713885</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.08685143367579</v>
+        <v>19.55164492655921</v>
       </c>
       <c r="C19">
-        <v>9.099389904672258</v>
+        <v>11.58015153444173</v>
       </c>
       <c r="D19">
-        <v>7.374460689926565</v>
+        <v>6.855550082706251</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.36511790295517</v>
+        <v>43.23457321993014</v>
       </c>
       <c r="G19">
-        <v>3.724105050175656</v>
+        <v>2.09772506524759</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.63269947192851</v>
+        <v>9.12812208060444</v>
       </c>
       <c r="K19">
-        <v>16.39173601367181</v>
+        <v>17.07652435598305</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.94441821708421</v>
+        <v>15.70577939172942</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.1757620323817</v>
+        <v>19.96066912342154</v>
       </c>
       <c r="C20">
-        <v>9.160778711125205</v>
+        <v>11.82737687700393</v>
       </c>
       <c r="D20">
-        <v>7.392178001881383</v>
+        <v>6.994996612631294</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>48.44369016629184</v>
+        <v>43.75788143638047</v>
       </c>
       <c r="G20">
-        <v>3.722954692529603</v>
+        <v>2.094063576364384</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.64256645464365</v>
+        <v>9.242069602641283</v>
       </c>
       <c r="K20">
-        <v>16.45247913737948</v>
+        <v>17.43799576797829</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.93214610175796</v>
+        <v>15.66735958363579</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.4765356603454</v>
+        <v>21.29938002298943</v>
       </c>
       <c r="C21">
-        <v>9.367181335583677</v>
+        <v>12.63716722280214</v>
       </c>
       <c r="D21">
-        <v>7.453592227777382</v>
+        <v>7.449730612754019</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.71894944177908</v>
+        <v>45.5320565916473</v>
       </c>
       <c r="G21">
-        <v>3.719208539271574</v>
+        <v>2.081828837970128</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.67849257460642</v>
+        <v>9.626805564795076</v>
       </c>
       <c r="K21">
-        <v>16.65987075527073</v>
+        <v>18.61988040289797</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.89314666357847</v>
+        <v>15.5468723014926</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67429907032666</v>
+        <v>22.14867502862595</v>
       </c>
       <c r="C22">
-        <v>9.501937121459253</v>
+        <v>13.15153425640089</v>
       </c>
       <c r="D22">
-        <v>7.495081915124607</v>
+        <v>7.736954705664477</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.90708894217534</v>
+        <v>46.70380312712008</v>
       </c>
       <c r="G22">
-        <v>3.716848354572828</v>
+        <v>2.073864891226494</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.70402261392076</v>
+        <v>9.879681570140217</v>
       </c>
       <c r="K22">
-        <v>16.79767398649097</v>
+        <v>19.36890808037555</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.86932514128454</v>
+        <v>15.47504042475262</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.56866141172149</v>
+        <v>21.6976752438247</v>
       </c>
       <c r="C23">
-        <v>9.430043880297916</v>
+        <v>12.87832274955068</v>
       </c>
       <c r="D23">
-        <v>7.472817924391667</v>
+        <v>7.584549583514494</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.80593162994919</v>
+        <v>46.07726762220361</v>
       </c>
       <c r="G23">
-        <v>3.718099994456359</v>
+        <v>2.078113684339088</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.69021034839574</v>
+        <v>9.74458206759518</v>
       </c>
       <c r="K23">
-        <v>16.72393192444851</v>
+        <v>18.97121799209463</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.88188645909106</v>
+        <v>15.51271117521384</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.17087093107272</v>
+        <v>19.93834326586806</v>
       </c>
       <c r="C24">
-        <v>9.15740634317115</v>
+        <v>11.81388047450357</v>
       </c>
       <c r="D24">
-        <v>7.391197819825342</v>
+        <v>6.987391483037027</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>48.43933258347678</v>
+        <v>43.72908433774258</v>
       </c>
       <c r="G24">
-        <v>3.72301741620643</v>
+        <v>2.094264351097582</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.64201412769294</v>
+        <v>9.235804996919228</v>
       </c>
       <c r="K24">
-        <v>16.44913048073389</v>
+        <v>17.41827033531557</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.93281163239564</v>
+        <v>15.669438271009</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.74907626461129</v>
+        <v>18.04535754131265</v>
       </c>
       <c r="C25">
-        <v>8.864348412029678</v>
+        <v>10.59771969591148</v>
       </c>
       <c r="D25">
-        <v>7.309306071381232</v>
+        <v>6.29853842535091</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>48.08025874950734</v>
+        <v>41.24722104385953</v>
       </c>
       <c r="G25">
-        <v>3.728703135606488</v>
+        <v>2.111935903181333</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.59893734558593</v>
+        <v>8.693188191516994</v>
       </c>
       <c r="K25">
-        <v>16.16371219076167</v>
+        <v>15.71493124680161</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.99488358583801</v>
+        <v>15.8650540123356</v>
       </c>
       <c r="O25">
         <v>0</v>
